--- a/results/Models/Table_models_zak.xlsx
+++ b/results/Models/Table_models_zak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helsinkifi-my.sharepoint.com/personal/beckeant_ad_helsinki_fi/Documents/ABS_Postdoc/Helsinki/Work/Arctic_Flowering/Arctic_flowering_R/results/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="8_{CB25A960-B95E-C844-BDE3-F0F2D091B196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F73E8725-0D93-404E-85A6-577DCF4521AF}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="8_{CB25A960-B95E-C844-BDE3-F0F2D091B196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDC8824-22B0-094F-9830-5CCC70C26482}"/>
   <bookViews>
-    <workbookView xWindow="-7020" yWindow="-28340" windowWidth="38700" windowHeight="28340" activeTab="1" xr2:uid="{21647BD2-5D45-904F-BF0E-D57BB03BEE0E}"/>
+    <workbookView xWindow="-5340" yWindow="-21140" windowWidth="38400" windowHeight="20000" activeTab="2" xr2:uid="{21647BD2-5D45-904F-BF0E-D57BB03BEE0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_z" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="283">
   <si>
     <t>Predictors</t>
   </si>
@@ -1054,9 +1054,6 @@
       </rPr>
       <t>Year:Plot</t>
     </r>
-  </si>
-  <si>
-    <t>Basic model, eq.1</t>
   </si>
   <si>
     <t>1.77</t>
@@ -1268,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1277,9 +1274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,9 +1281,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1311,9 +1302,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1334,65 +1322,71 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,723 +1704,723 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F4476-EC65-E942-9329-4029DE3E4ADD}">
   <dimension ref="C2:I47"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="25"/>
-    <col min="3" max="3" width="10.83203125" style="23"/>
-    <col min="4" max="4" width="31.1640625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="25"/>
+    <col min="1" max="2" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="10.83203125" style="20"/>
+    <col min="4" max="4" width="31.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D3" s="24"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="3:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="3:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="23"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="4:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="23"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="23"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="23"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="4:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="23"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="4:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="23"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="4:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="23"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="23"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="4:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="27">
         <v>22</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="23"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="4:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="27">
         <v>28</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="27">
         <v>566</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="23"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="4:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D46" s="24"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.15">
-      <c r="D47" s="24"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2440,7 +2434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15B4A49-0A83-DA43-B339-26792ABBAB6C}">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -2453,341 +2447,341 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="6"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="6"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="6"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
+      <c r="D8" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
-      <c r="D8" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="5"/>
+      <c r="D9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="5"/>
+      <c r="D11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+      <c r="D12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-      <c r="D9" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
-      <c r="D10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-      <c r="D11" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
-      <c r="D12" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
+      <c r="D13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-      <c r="D13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="5"/>
+      <c r="D14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="5"/>
+      <c r="D15" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-      <c r="D14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="6"/>
-      <c r="D15" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
-      <c r="D16" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="45" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="41">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="41">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="41">
+        <v>203</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+      <c r="D21" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="D17" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="D18" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="E18" s="45">
-        <v>16</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="D19" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="45">
-        <v>11</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="D20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="45">
-        <v>203</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="3:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="D21" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2799,856 +2793,796 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4030EC05-C7FB-7A4C-BF50-5FCCB0B0E8EC}">
-  <dimension ref="B2:N38"/>
+  <dimension ref="C2:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="7"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="4" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="4" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="7"/>
-      <c r="D9" s="16" t="s">
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6"/>
+      <c r="D5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M7" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9" t="s">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9" t="s">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L9" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M9" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="N18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="10" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="N19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="N20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="N21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="N22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="N23" s="7"/>
+      <c r="M23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="N27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="7"/>
-      <c r="D28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E29" s="7">
         <v>730</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7">
         <v>222</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="7"/>
-      <c r="D34" s="13" t="s">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="6"/>
+      <c r="D30" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="7"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="D2:G2"/>
+  <mergeCells count="2">
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
